--- a/results/hugh-murray/part1/visited-modernday-locations.xlsx
+++ b/results/hugh-murray/part1/visited-modernday-locations.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t xml:space="preserve">Beijing</t>
   </si>
   <si>
-    <t xml:space="preserve">location1</t>
+    <t xml:space="preserve">Framenet annotations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approach</t>
   </si>
   <si>
     <t xml:space="preserve">Beijing,China</t>
@@ -43,6 +46,9 @@
     <t xml:space="preserve">Puzhou,China</t>
   </si>
   <si>
+    <t xml:space="preserve">Puzhou,China </t>
+  </si>
+  <si>
     <t xml:space="preserve">Xi'an,China</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">Yunxian,China</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yunxian,China</t>
   </si>
   <si>
     <t xml:space="preserve">Luoping County,China</t>
@@ -116,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -140,11 +149,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF800000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -152,7 +156,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF800000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -205,7 +208,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,39 +217,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -269,13 +260,15 @@
   </sheetPr>
   <dimension ref="1:30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -287,175 +280,220 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" s="4" customFormat="true" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AMJ4" s="0"/>
-    </row>
-    <row r="5" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="AMJ5" s="0"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AMJ11" s="7"/>
-    </row>
-    <row r="12" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
+    </row>
+    <row r="12" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="AMJ16" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="AMJ24" s="7"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AMJ24" s="6"/>
+    </row>
+    <row r="25" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="AMJ27" s="7"/>
+    </row>
+    <row r="27" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AMJ27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
